--- a/Misc/Excel/MonsterControllerCfg.xlsx
+++ b/Misc/Excel/MonsterControllerCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>${name}</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>[106,13,117,14,105,16]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[105,17,108,9,117,20,111,21,112,22]</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1270,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="A8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="52"/>

--- a/Misc/Excel/MonsterControllerCfg.xlsx
+++ b/Misc/Excel/MonsterControllerCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>${name}</t>
   </si>
@@ -80,7 +80,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>[105,17,108,9,117,20,111,21,112,22]</t>
+    <t>[105,17,108,9,117,20,111,21,112,22,106,25]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>[106,23,108,9,117,24]</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,12 +233,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -617,10 +617,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
@@ -629,10 +629,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
@@ -641,10 +641,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
@@ -653,10 +653,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
@@ -665,10 +665,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
@@ -766,10 +766,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
@@ -778,10 +778,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
@@ -790,10 +790,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
@@ -802,10 +802,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
@@ -814,10 +814,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
@@ -826,10 +826,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1281,9 +1281,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="A9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52"/>
